--- a/biology/Médecine/Philippe_Meyer_(médecin)/Philippe_Meyer_(médecin).xlsx
+++ b/biology/Médecine/Philippe_Meyer_(médecin)/Philippe_Meyer_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Philippe_Meyer_(m%C3%A9decin)</t>
+          <t>Philippe_Meyer_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Meyer, né le 4 mai 1933 à Neuilly-sur-Seine et mort le 1er mai 2020 à Neuilly-sur-Seine[1],[2], est un médecin, physiologiste, philosophe et historien français, professeur émérite à l'hôpital Necker de Paris et à l'hôpital de la Charité-Humboldt de Berlin, correspondant de l'Académie des sciences.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Meyer, né le 4 mai 1933 à Neuilly-sur-Seine et mort le 1er mai 2020 à Neuilly-sur-Seine est un médecin, physiologiste, philosophe et historien français, professeur émérite à l'hôpital Necker de Paris et à l'hôpital de la Charité-Humboldt de Berlin, correspondant de l'Académie des sciences.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Philippe_Meyer_(m%C3%A9decin)</t>
+          <t>Philippe_Meyer_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, André Meyer, était médecin et professeur d'université.
 Spécialiste de l'hypertension artérielle, Philippe Meyer a écrit une centaine de monographies scientifiques sur ce sujet.
-Essayiste, historien [3] et enseignant d'histoire de la philosophie de la médecine à la Faculté de médecine Paris-Descartes, il a écrit de nombreux livres dont Philosophie de la médecine.
+Essayiste, historien  et enseignant d'histoire de la philosophie de la médecine à la Faculté de médecine Paris-Descartes, il a écrit de nombreux livres dont Philosophie de la médecine.
 D'origine alsacienne, il a publié plusieurs ouvrages sur l'histoire de sa région.
 Il était l'époux de Sylvie Pierre-Brossolette, journaliste.
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Philippe_Meyer_(m%C3%A9decin)</t>
+          <t>Philippe_Meyer_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +562,49 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Sommeils indiscrets, Plon, 31 décembre 1989, 268 p. (ISBN 9782855655970, présentation en ligne)
-Essais
-La Révolution des médicaments, mythes et réalités, Paris, Fayard, 1984, 377 p. (ISBN 2-213-01440-X) - Prix Nicolas Missarel en 1985
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sommeils indiscrets, Plon, 31 décembre 1989, 268 p. (ISBN 9782855655970, présentation en ligne)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Philippe_Meyer_(médecin)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Meyer_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Révolution des médicaments, mythes et réalités, Paris, Fayard, 1984, 377 p. (ISBN 2-213-01440-X) - Prix Nicolas Missarel en 1985
 L'Irresponsabilité médicale, Paris, Grasset, 1993, 218 p. (ISBN 2-246-48561-4)
 L'Illusion nécessaire, Paris, Omnibus, 1995, 230 p. (ISBN 2-259-18212-7)
 Leçons d'histoire de la pensée médicale : sciences humaines et sociales en médecine, Paris, Odile Jacob, 1996, 397 p. (ISBN 2-7381-0367-7, lire en ligne)
@@ -560,15 +613,83 @@
 Le Mythe de jouvence : Essai sur la santé, la vieillesse et l'argent, Paris, Odile Jacob, 2000, 284 p. (ISBN 2-7381-0018-X)
 Philosophie de la médecine, Paris, Grasset, coll. « Le collège de philosophie », 2000, 458 p. (ISBN 2-246-58621-6)
 L'Homme et le sel, Empêcheurs de Penser en Rond, 2000 (ISBN 2-84324-102-2)
-Le bonheur de ne pas être américain, 2004, 126 p. (ISBN 2-35004-005-4)
-Ouvrages d'histoire
-Histoire de l'Alsace, Paris, Perrin, 2008, 426 p. (ISBN 978-2-262-02769-8)
+Le bonheur de ne pas être américain, 2004, 126 p. (ISBN 2-35004-005-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Philippe_Meyer_(médecin)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Meyer_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages d'histoire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Histoire de l'Alsace, Paris, Perrin, 2008, 426 p. (ISBN 978-2-262-02769-8)
 France et Prusse : une histoire croisée, J.-D. Bentzinger, 2009, 261 p. (ISBN 978-2-84960-163-1)
 L'Or du Rhin, histoire d'un fleuve, Paris, Perrin, 2011, 437 p. (ISBN 978-2-262-03258-6)
 Ils étaient Allemands contre Hitler  (préf. Susanne Wasum-rainer), Lausanne/Paris, L'Âge d'Homme, 2015, 281 p. (ISBN 978-2-8251-4491-6)
-Baltiques, Histoire d'une mer d'ambre, Paris, Perrin, 2013, 502 p. (ISBN 978-2-262-03626-3)
-Ouvrages médicaux
-Physiologie humaine, Paris, Flammarion, coll. « Médecine », 1994, 1319 p. (ISBN 2-257-10243-6)
+Baltiques, Histoire d'une mer d'ambre, Paris, Perrin, 2013, 502 p. (ISBN 978-2-262-03626-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Philippe_Meyer_(médecin)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philippe_Meyer_(m%C3%A9decin)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages médicaux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Physiologie humaine, Paris, Flammarion, coll. « Médecine », 1994, 1319 p. (ISBN 2-257-10243-6)
 (en) Nervous System and Hypertension, Wiley (ISBN 978-0-471-04718-6 et 0-471-04718-X)</t>
         </is>
       </c>
